--- a/public/4REFRESH_这是一个名字很长的字符testttttttttttttttttttttttttttttttttttttt - 副本.xlsx
+++ b/public/4REFRESH_这是一个名字很长的字符testttttttttttttttttttttttttttttttttttttt - 副本.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\project\vue-excel-process-system\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35A37F-C5B0-4214-881B-D0F7A01CBEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC632B5-BDDB-4108-8DB1-0D3BF89B5AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36780" yWindow="2490" windowWidth="20520" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -30,106 +42,149 @@
     <t>Headline</t>
   </si>
   <si>
-    <t>aaaa11aa</t>
-  </si>
-  <si>
-    <t>测试测试</t>
-  </si>
-  <si>
-    <t>aaa我aaa12</t>
-  </si>
-  <si>
-    <t>aaaaaa13</t>
-  </si>
-  <si>
-    <t>bbb7b</t>
-  </si>
-  <si>
-    <t>322测试</t>
-  </si>
-  <si>
-    <t>bb8abb</t>
-  </si>
-  <si>
-    <t>3测试3</t>
-  </si>
-  <si>
-    <t>bbbb测试</t>
-  </si>
-  <si>
-    <t>320aa</t>
-  </si>
-  <si>
-    <t>bef79文</t>
-  </si>
-  <si>
-    <t>bbb20b</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>bbb测试b</t>
-  </si>
-  <si>
-    <t>11bcd测试</t>
-  </si>
-  <si>
-    <t>bb21bb</t>
-  </si>
-  <si>
-    <t>aaccc322</t>
-  </si>
-  <si>
-    <t>aac测试78cc</t>
-  </si>
-  <si>
-    <t>15de我的f</t>
-  </si>
-  <si>
     <t>aaccc</t>
   </si>
   <si>
-    <t>aacc3c</t>
-  </si>
-  <si>
-    <t>18def</t>
-  </si>
-  <si>
-    <t>aaaa18我aa</t>
-  </si>
-  <si>
     <t>aaddda</t>
   </si>
   <si>
-    <t>20我</t>
-  </si>
-  <si>
-    <t>aaa9aaa</t>
-  </si>
-  <si>
-    <t>21fff</t>
-  </si>
-  <si>
     <t>aeeeea</t>
   </si>
   <si>
-    <t>测试用例</t>
-  </si>
-  <si>
-    <t>ceshi1</t>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>SubmitDescription</t>
+  </si>
+  <si>
+    <t>VersionFoundIn</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Probability_Score</t>
+  </si>
+  <si>
+    <t>Impact_Score</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>InstallBase</t>
+  </si>
+  <si>
+    <t>CRB_MinutesActions</t>
+  </si>
+  <si>
+    <t>ReferenceID</t>
+  </si>
+  <si>
+    <t>Subsystem</t>
+  </si>
+  <si>
+    <t>RationaleForChange</t>
+  </si>
+  <si>
+    <t>ResolutionDescription</t>
+  </si>
+  <si>
+    <t>VersionsFixedIn</t>
+  </si>
+  <si>
+    <t>CFR_ID</t>
+  </si>
+  <si>
+    <t>AssociatedDefects</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Workaround</t>
+  </si>
+  <si>
+    <t>12a啊</t>
+  </si>
+  <si>
+    <t>aaaaaa15</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>啊啊啊啊</t>
+  </si>
+  <si>
+    <t>测试aacccVue components extend basic HTML elements to encapsulate reusable code. At a high level, components are custom elements to which the Vue's compiler attaches behavior. In Vue, a component is essentially a Vue instance with pre-defined options. The code snippet below contains an ex</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>4efd</t>
+  </si>
+  <si>
+    <t>aeeeea2</t>
+  </si>
+  <si>
+    <t>aaccc456</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>qw测试</t>
+  </si>
+  <si>
+    <t>16测试</t>
+  </si>
+  <si>
+    <t>aaccc987</t>
+  </si>
+  <si>
+    <t>aaccc3</t>
+  </si>
+  <si>
+    <t>18ceshi</t>
+  </si>
+  <si>
+    <t>19bcd</t>
+  </si>
+  <si>
+    <t>20测试用例</t>
+  </si>
+  <si>
+    <t>22测试用例aa</t>
+  </si>
+  <si>
+    <t>qwerfghjk</t>
+  </si>
+  <si>
+    <t>asd12</t>
+  </si>
+  <si>
+    <t>测试列1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,8 +210,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -474,257 +532,1505 @@
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>370</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>4</v>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
